--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H2">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.54630310326</v>
+        <v>34.36078833333333</v>
       </c>
       <c r="N2">
-        <v>33.54630310326</v>
+        <v>103.082365</v>
       </c>
       <c r="O2">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="P2">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="Q2">
-        <v>28.11569529930836</v>
+        <v>34.54095340016111</v>
       </c>
       <c r="R2">
-        <v>28.11569529930836</v>
+        <v>310.8685806014499</v>
       </c>
       <c r="S2">
-        <v>0.02005436853018814</v>
+        <v>0.02058386203526802</v>
       </c>
       <c r="T2">
-        <v>0.02005436853018814</v>
+        <v>0.02058386203526801</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H3">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.1680620340201</v>
+        <v>21.54461566666667</v>
       </c>
       <c r="N3">
-        <v>21.1680620340201</v>
+        <v>64.633847</v>
       </c>
       <c r="O3">
-        <v>0.1964211491425497</v>
+        <v>0.17863732245739</v>
       </c>
       <c r="P3">
-        <v>0.1964211491425497</v>
+        <v>0.1786373224573899</v>
       </c>
       <c r="Q3">
-        <v>17.74129269605061</v>
+        <v>21.65758126814556</v>
       </c>
       <c r="R3">
-        <v>17.74129269605061</v>
+        <v>194.91823141331</v>
       </c>
       <c r="S3">
-        <v>0.01265451265355285</v>
+        <v>0.01290632194417175</v>
       </c>
       <c r="T3">
-        <v>0.01265451265355285</v>
+        <v>0.01290632194417174</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H4">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I4">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J4">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.0201129508547</v>
+        <v>60.03138866666666</v>
       </c>
       <c r="N4">
-        <v>49.0201129508547</v>
+        <v>180.094166</v>
       </c>
       <c r="O4">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="P4">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="Q4">
-        <v>41.08454380268134</v>
+        <v>60.34615324790888</v>
       </c>
       <c r="R4">
-        <v>41.08454380268134</v>
+        <v>543.1153792311799</v>
       </c>
       <c r="S4">
-        <v>0.02930479127556547</v>
+        <v>0.03596185891059694</v>
       </c>
       <c r="T4">
-        <v>0.02930479127556547</v>
+        <v>0.03596185891059694</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H5">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I5">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J5">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.03427352759727</v>
+        <v>4.668551</v>
       </c>
       <c r="N5">
-        <v>4.03427352759727</v>
+        <v>14.005653</v>
       </c>
       <c r="O5">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="P5">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="Q5">
-        <v>3.381189423670593</v>
+        <v>4.693029769076666</v>
       </c>
       <c r="R5">
-        <v>3.381189423670593</v>
+        <v>42.23726792169</v>
       </c>
       <c r="S5">
-        <v>0.002411735439967319</v>
+        <v>0.00279669979502156</v>
       </c>
       <c r="T5">
-        <v>0.002411735439967319</v>
+        <v>0.00279669979502156</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H6">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J6">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.54630310326</v>
+        <v>34.36078833333333</v>
       </c>
       <c r="N6">
-        <v>33.54630310326</v>
+        <v>103.082365</v>
       </c>
       <c r="O6">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="P6">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="Q6">
-        <v>339.3567540309286</v>
+        <v>352.5361676666744</v>
       </c>
       <c r="R6">
-        <v>339.3567540309286</v>
+        <v>3172.82550900007</v>
       </c>
       <c r="S6">
-        <v>0.242056450537507</v>
+        <v>0.2100855686762571</v>
       </c>
       <c r="T6">
-        <v>0.242056450537507</v>
+        <v>0.210085568676257</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H7">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J7">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.1680620340201</v>
+        <v>21.54461566666667</v>
       </c>
       <c r="N7">
-        <v>21.1680620340201</v>
+        <v>64.633847</v>
       </c>
       <c r="O7">
-        <v>0.1964211491425497</v>
+        <v>0.17863732245739</v>
       </c>
       <c r="P7">
-        <v>0.1964211491425497</v>
+        <v>0.1786373224573899</v>
       </c>
       <c r="Q7">
-        <v>214.1375995703177</v>
+        <v>221.0442952384163</v>
       </c>
       <c r="R7">
-        <v>214.1375995703177</v>
+        <v>1989.398657145746</v>
       </c>
       <c r="S7">
-        <v>0.1527401080512723</v>
+        <v>0.1317261056508472</v>
       </c>
       <c r="T7">
-        <v>0.1527401080512723</v>
+        <v>0.1317261056508471</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H8">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I8">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J8">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>49.0201129508547</v>
+        <v>60.03138866666666</v>
       </c>
       <c r="N8">
-        <v>49.0201129508547</v>
+        <v>180.094166</v>
       </c>
       <c r="O8">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="P8">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="Q8">
-        <v>495.8908992751255</v>
+        <v>615.9124026768876</v>
       </c>
       <c r="R8">
-        <v>495.8908992751255</v>
+        <v>5543.211624091988</v>
       </c>
       <c r="S8">
-        <v>0.3537091556499552</v>
+        <v>0.3670383899262132</v>
       </c>
       <c r="T8">
-        <v>0.3537091556499552</v>
+        <v>0.3670383899262132</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H9">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I9">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J9">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.03427352759727</v>
+        <v>4.668551</v>
       </c>
       <c r="N9">
-        <v>4.03427352759727</v>
+        <v>14.005653</v>
       </c>
       <c r="O9">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="P9">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="Q9">
-        <v>40.81099383691163</v>
+        <v>47.89858317947267</v>
       </c>
       <c r="R9">
-        <v>40.81099383691163</v>
+        <v>431.087248615254</v>
       </c>
       <c r="S9">
-        <v>0.02910967350356781</v>
+        <v>0.02854402472418367</v>
       </c>
       <c r="T9">
-        <v>0.02910967350356781</v>
+        <v>0.02854402472418367</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H10">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I10">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J10">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.54630310326</v>
+        <v>34.36078833333333</v>
       </c>
       <c r="N10">
-        <v>33.54630310326</v>
+        <v>103.082365</v>
       </c>
       <c r="O10">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="P10">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="Q10">
-        <v>12.00451696222324</v>
+        <v>13.19024762145833</v>
       </c>
       <c r="R10">
-        <v>12.00451696222324</v>
+        <v>118.712228593125</v>
       </c>
       <c r="S10">
-        <v>0.008562584158935654</v>
+        <v>0.007860415261434391</v>
       </c>
       <c r="T10">
-        <v>0.008562584158935654</v>
+        <v>0.007860415261434389</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H11">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I11">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J11">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.1680620340201</v>
+        <v>21.54461566666667</v>
       </c>
       <c r="N11">
-        <v>21.1680620340201</v>
+        <v>64.633847</v>
       </c>
       <c r="O11">
-        <v>0.1964211491425497</v>
+        <v>0.17863732245739</v>
       </c>
       <c r="P11">
-        <v>0.1964211491425497</v>
+        <v>0.1786373224573899</v>
       </c>
       <c r="Q11">
-        <v>7.574973580921754</v>
+        <v>8.270439339041667</v>
       </c>
       <c r="R11">
-        <v>7.574973580921754</v>
+        <v>74.43395405137501</v>
       </c>
       <c r="S11">
-        <v>0.0054030786071999</v>
+        <v>0.004928572189472132</v>
       </c>
       <c r="T11">
-        <v>0.0054030786071999</v>
+        <v>0.004928572189472131</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H12">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I12">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J12">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.0201129508547</v>
+        <v>60.03138866666666</v>
       </c>
       <c r="N12">
-        <v>49.0201129508547</v>
+        <v>180.094166</v>
       </c>
       <c r="O12">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="P12">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="Q12">
-        <v>17.54180708369763</v>
+        <v>23.04454932441667</v>
       </c>
       <c r="R12">
-        <v>17.54180708369763</v>
+        <v>207.40094391975</v>
       </c>
       <c r="S12">
-        <v>0.01251222351775136</v>
+        <v>0.01373285266516439</v>
       </c>
       <c r="T12">
-        <v>0.01251222351775136</v>
+        <v>0.01373285266516439</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H13">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I13">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J13">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.03427352759727</v>
+        <v>4.668551</v>
       </c>
       <c r="N13">
-        <v>4.03427352759727</v>
+        <v>14.005653</v>
       </c>
       <c r="O13">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="P13">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="Q13">
-        <v>1.443661462284446</v>
+        <v>1.792140015125</v>
       </c>
       <c r="R13">
-        <v>1.443661462284446</v>
+        <v>16.129260136125</v>
       </c>
       <c r="S13">
-        <v>0.001029735124430474</v>
+        <v>0.001067983341161743</v>
       </c>
       <c r="T13">
-        <v>0.001029735124430474</v>
+        <v>0.001067983341161743</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H14">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I14">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J14">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.54630310326</v>
+        <v>34.36078833333333</v>
       </c>
       <c r="N14">
-        <v>33.54630310326</v>
+        <v>103.082365</v>
       </c>
       <c r="O14">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="P14">
-        <v>0.3112804277707056</v>
+        <v>0.28490270239021</v>
       </c>
       <c r="Q14">
-        <v>56.92997649734691</v>
+        <v>77.81643064825165</v>
       </c>
       <c r="R14">
-        <v>56.92997649734691</v>
+        <v>700.347875834265</v>
       </c>
       <c r="S14">
-        <v>0.04060702454407485</v>
+        <v>0.04637285641725058</v>
       </c>
       <c r="T14">
-        <v>0.04060702454407485</v>
+        <v>0.04637285641725056</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H15">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I15">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J15">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.1680620340201</v>
+        <v>21.54461566666667</v>
       </c>
       <c r="N15">
-        <v>21.1680620340201</v>
+        <v>64.633847</v>
       </c>
       <c r="O15">
-        <v>0.1964211491425497</v>
+        <v>0.17863732245739</v>
       </c>
       <c r="P15">
-        <v>0.1964211491425497</v>
+        <v>0.1786373224573899</v>
       </c>
       <c r="Q15">
-        <v>35.92340027399428</v>
+        <v>48.79181102029634</v>
       </c>
       <c r="R15">
-        <v>35.92340027399428</v>
+        <v>439.126299182667</v>
       </c>
       <c r="S15">
-        <v>0.02562344983052456</v>
+        <v>0.02907632267289892</v>
       </c>
       <c r="T15">
-        <v>0.02562344983052456</v>
+        <v>0.02907632267289892</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H16">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I16">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J16">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.0201129508547</v>
+        <v>60.03138866666666</v>
       </c>
       <c r="N16">
-        <v>49.0201129508547</v>
+        <v>180.094166</v>
       </c>
       <c r="O16">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="P16">
-        <v>0.4548638841585946</v>
+        <v>0.4977506538398792</v>
       </c>
       <c r="Q16">
-        <v>83.18990827690489</v>
+        <v>135.9523055053473</v>
       </c>
       <c r="R16">
-        <v>83.18990827690489</v>
+        <v>1223.570749548126</v>
       </c>
       <c r="S16">
-        <v>0.05933771371532255</v>
+        <v>0.08101755233790464</v>
       </c>
       <c r="T16">
-        <v>0.05933771371532255</v>
+        <v>0.08101755233790464</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.69705664204216</v>
+        <v>2.264687</v>
       </c>
       <c r="H17">
-        <v>1.69705664204216</v>
+        <v>6.794061</v>
       </c>
       <c r="I17">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="J17">
-        <v>0.1304515829501065</v>
+        <v>0.162767344880208</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.03427352759727</v>
+        <v>4.668551</v>
       </c>
       <c r="N17">
-        <v>4.03427352759727</v>
+        <v>14.005653</v>
       </c>
       <c r="O17">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="P17">
-        <v>0.03743453892815018</v>
+        <v>0.03870932131252084</v>
       </c>
       <c r="Q17">
-        <v>6.846390685823802</v>
+        <v>10.572806758537</v>
       </c>
       <c r="R17">
-        <v>6.846390685823802</v>
+        <v>95.155260826833</v>
       </c>
       <c r="S17">
-        <v>0.004883394860184575</v>
+        <v>0.006300613452153866</v>
       </c>
       <c r="T17">
-        <v>0.004883394860184575</v>
+        <v>0.006300613452153866</v>
       </c>
     </row>
   </sheetData>
